--- a/config_ios/activity_xycj_config.xlsx
+++ b/config_ios/activity_xycj_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -286,6 +286,29 @@
   <si>
     <t>30万福利券</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type|资产类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value|数值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
   </si>
 </sst>
 </file>
@@ -355,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -378,6 +401,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -386,7 +420,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +486,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -733,7 +770,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -779,6 +816,12 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
@@ -802,6 +845,12 @@
       <c r="G2" s="11">
         <v>0</v>
       </c>
+      <c r="H2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="11">
+        <v>600</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -824,6 +873,12 @@
       </c>
       <c r="G3" s="11">
         <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="11">
+        <v>285</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -849,6 +904,12 @@
       <c r="G4" s="11">
         <v>1</v>
       </c>
+      <c r="H4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2400</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -873,6 +934,12 @@
       <c r="G5" s="11">
         <v>0</v>
       </c>
+      <c r="H5" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="11">
+        <v>600</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -897,6 +964,12 @@
       <c r="G6" s="11">
         <v>0</v>
       </c>
+      <c r="H6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="11">
+        <v>300</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -921,6 +994,12 @@
       <c r="G7" s="11">
         <v>1</v>
       </c>
+      <c r="H7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="11">
+        <v>900</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -945,6 +1024,12 @@
       <c r="G8" s="11">
         <v>0</v>
       </c>
+      <c r="H8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="11">
+        <v>600</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -969,6 +1054,12 @@
       <c r="G9" s="11">
         <v>0</v>
       </c>
+      <c r="H9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="11">
+        <v>300</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -993,6 +1084,12 @@
       <c r="G10" s="11">
         <v>1</v>
       </c>
+      <c r="H10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2400</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1017,6 +1114,12 @@
       <c r="G11" s="11">
         <v>0</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="11">
+        <v>255</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1041,6 +1144,12 @@
       <c r="G12" s="18">
         <v>0</v>
       </c>
+      <c r="H12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="18">
+        <v>4750</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
@@ -1064,6 +1173,12 @@
       <c r="G13" s="18">
         <v>0</v>
       </c>
+      <c r="H13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="18">
+        <v>10000000</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
@@ -1086,6 +1201,12 @@
       </c>
       <c r="G14" s="18">
         <v>1</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1000000</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="2"/>
@@ -1117,6 +1238,12 @@
       <c r="G15" s="18">
         <v>0</v>
       </c>
+      <c r="H15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="18">
+        <v>5000000</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1147,6 +1274,12 @@
       <c r="G16" s="18">
         <v>0</v>
       </c>
+      <c r="H16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="18">
+        <v>100000</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1177,6 +1310,12 @@
       <c r="G17" s="18">
         <v>1</v>
       </c>
+      <c r="H17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="18">
+        <v>100000000</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1207,6 +1346,12 @@
       <c r="G18" s="18">
         <v>0</v>
       </c>
+      <c r="H18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="18">
+        <v>4250</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1237,6 +1382,12 @@
       <c r="G19" s="18">
         <v>0</v>
       </c>
+      <c r="H19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="18">
+        <v>5000000</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1267,6 +1418,12 @@
       <c r="G20" s="18">
         <v>1</v>
       </c>
+      <c r="H20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="18">
+        <v>400000</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1296,6 +1453,12 @@
       </c>
       <c r="G21" s="18">
         <v>0</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="18">
+        <v>10000000</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>

--- a/config_ios/activity_xycj_config.xlsx
+++ b/config_ios/activity_xycj_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="5" r:id="rId1"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"duihuan_shop",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_flq1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -309,13 +305,16 @@
   </si>
   <si>
     <t>jing_bi</t>
+  </si>
+  <si>
+    <t>"shop_bay","tool"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +349,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -420,7 +425,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +494,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -769,7 +777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -817,10 +825,10 @@
         <v>9</v>
       </c>
       <c r="H1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -834,19 +842,19 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="11">
         <v>0</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="11">
         <v>600</v>
@@ -863,19 +871,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="11">
         <v>285</v>
@@ -893,19 +901,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="11">
         <v>2400</v>
@@ -923,19 +931,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="11">
         <v>600</v>
@@ -953,19 +961,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="11">
         <v>300</v>
@@ -983,19 +991,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="11">
         <v>900</v>
@@ -1013,19 +1021,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I8" s="11">
         <v>600</v>
@@ -1043,19 +1051,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="11">
         <v>300</v>
@@ -1073,19 +1081,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="11">
         <v>2400</v>
@@ -1103,19 +1111,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="11">
         <v>255</v>
@@ -1133,19 +1141,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="17">
         <v>1</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="18">
         <v>0</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I12" s="18">
         <v>4750</v>
@@ -1162,19 +1170,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="17">
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="18">
         <v>0</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="18">
         <v>10000000</v>
@@ -1191,19 +1199,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="17">
         <v>1</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="18">
         <v>1</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="18">
         <v>1000000</v>
@@ -1227,19 +1235,19 @@
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="17">
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I15" s="18">
         <v>5000000</v>
@@ -1263,19 +1271,19 @@
         <v>2</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="18">
         <v>100000</v>
@@ -1299,19 +1307,19 @@
         <v>2</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="17">
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="18">
         <v>1</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="18">
         <v>100000000</v>
@@ -1335,19 +1343,19 @@
         <v>2</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="18">
         <v>0</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="18">
         <v>4250</v>
@@ -1371,19 +1379,19 @@
         <v>2</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="18">
         <v>0</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" s="18">
         <v>5000000</v>
@@ -1407,19 +1415,19 @@
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="17">
         <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="18">
         <v>1</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I20" s="18">
         <v>400000</v>
@@ -1443,19 +1451,19 @@
         <v>2</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="17">
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="18">
         <v>0</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="18">
         <v>10000000</v>
@@ -1575,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1617,39 +1625,39 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="D3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1657,19 +1665,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="E4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1677,19 +1685,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1697,19 +1705,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>50</v>
-      </c>
       <c r="E6" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1717,19 +1725,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>52</v>
-      </c>
       <c r="E7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1737,19 +1745,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="E8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1757,16 +1765,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>59</v>
-      </c>
       <c r="E9" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
+        <v>63</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
